--- a/old_database/crypto/fastqFiles/fastq_4019.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_4019.xlsx
@@ -37,7 +37,7 @@
     <t>08.14.18</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_4019</t>
   </si>
   <si>
     <t>sequence/run_4019_samples/4019_Brent_hlb1_TCCGGGA_S39_R1_001.fastq.gz</t>
